--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/DIEGO ALDANA.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/Responsables/5-2024/DIEGO ALDANA.xlsx
@@ -8,12 +8,10 @@
   <x:sheets>
     <x:sheet name="CSYSO" sheetId="2" r:id="rId2"/>
     <x:sheet name="IAPI" sheetId="3" r:id="rId3"/>
-    <x:sheet name="PROCOTIZA" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSYSO!$A$5:$L$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IAPI!$A$5:$I$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PROCOTIZA!$A$5:$K$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -123,48 +121,6 @@
   </x:si>
   <x:si>
     <x:t>LEONARDO LUEVANO DE LEÓN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROCOTIZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fecha de Creacion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ultimo Acceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diego Aldana Vite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADMDAV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADMINISTRADOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Johana Alejandra Martinez Vazquez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADMJMV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Claudia Montserrat De Lara Rodríguez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADMMDL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leonardo Luevano De León</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CALLLD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adriana Guadalupe Armendariz Morales</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CALAAM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -890,229 +846,4 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:J10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="36.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.853482" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.710625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="D2" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="D4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F6" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45341</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I6" s="3"/>
-      <x:c r="J6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45348</x:v>
-      </x:c>
-      <x:c r="H7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I7" s="3"/>
-      <x:c r="J7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F8" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45355</x:v>
-      </x:c>
-      <x:c r="H8" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I8" s="3"/>
-      <x:c r="J8" s="3"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F9" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G9" s="4">
-        <x:v>45337</x:v>
-      </x:c>
-      <x:c r="H9" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I9" s="3"/>
-      <x:c r="J9" s="3"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F10" s="4">
-        <x:v>44757</x:v>
-      </x:c>
-      <x:c r="G10" s="4">
-        <x:v>45345</x:v>
-      </x:c>
-      <x:c r="H10" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I10" s="3"/>
-      <x:c r="J10" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A5:K5"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
 </file>